--- a/results/tables/accuracy_age_males_head.xlsx
+++ b/results/tables/accuracy_age_males_head.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.96</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C3" t="n">
         <v>0.9166666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9030769230769231</v>
+        <v>0.8720238095238095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9198717948717949</v>
+        <v>0.9006410256410255</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9105882352941176</v>
+        <v>0.8830769230769231</v>
       </c>
       <c r="E5" t="n">
         <v>38</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9240485829959514</v>
+        <v>0.9038220551378446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9218575851393189</v>
+        <v>0.8966801619433197</v>
       </c>
       <c r="E6" t="n">
         <v>38</v>
